--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -408,14 +408,35 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="华文楷体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>(bold, underlined items are personally favored)</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bold, underlined items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> are personally favored)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,14 +469,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="华文楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="华文楷体"/>
@@ -538,16 +551,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -556,10 +569,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,34 @@
       </rPr>
       <t xml:space="preserve"> are personally favored)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红高粱家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东的故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼祥子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石仲泉、陈登才主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨绛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +589,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -855,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -870,11 +904,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -888,431 +922,467 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>2020</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
+    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>2019</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
+    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>2018</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
+    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5" t="s">
+    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
+    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5" t="s">
+    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5" t="s">
+    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2" t="s">
+    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2" t="s">
+    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5" t="s">
+    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2" t="s">
+    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5" t="s">
+    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2" t="s">
+    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2" t="s">
+    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>2017</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6" t="s">
+    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4" t="s">
+    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4" t="s">
+    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6" t="s">
+    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>2016</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2" t="s">
+    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2" t="s">
+    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6" t="s">
+    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4" t="s">
+    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4" t="s">
+    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="6" t="s">
+    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="A39:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,14 @@
   </si>
   <si>
     <t>杨绛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁迅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +597,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -889,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -904,11 +915,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -922,467 +933,476 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2020</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>2019</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>2018</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
         <v>2017</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="6" t="s">
+    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>2016</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="6" t="s">
+    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="4" t="s">
+    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="4" t="s">
+    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A39"/>
+    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,42 @@
       </rPr>
       <t xml:space="preserve"> are personally favored)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红高粱家族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东的故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼祥子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石仲泉、陈登才主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨绛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁迅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +597,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -855,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -870,11 +915,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -888,431 +933,476 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>2020</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
+    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5" t="s">
+    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>2019</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
+    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
+    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>2018</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5" t="s">
+    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5" t="s">
+    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
+    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5" t="s">
+    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5" t="s">
+    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2" t="s">
+    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2" t="s">
+    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5" t="s">
+    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2" t="s">
+    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5" t="s">
+    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2" t="s">
+    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2" t="s">
+    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
         <v>2017</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6" t="s">
+    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4" t="s">
+    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="4" t="s">
+    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6" t="s">
+    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>2016</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2" t="s">
+    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2" t="s">
+    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6" t="s">
+    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4" t="s">
+    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4" t="s">
+    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="6" t="s">
+    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A39"/>
+    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoE\Other\FeiYao-Edinburgh.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoE\FeiYao-Edinburgh.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +379,6 @@
   </si>
   <si>
     <t>因为痛·所以叫青春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金兰都著，金勇译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +470,28 @@
   </si>
   <si>
     <t>鲁迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82年生的金智英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵南柱</t>
+  </si>
+  <si>
+    <t>三国演义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗贯中著
+吴小林校注
+陈迩东审定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金兰都著
+金勇译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,6 +626,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -914,16 +938,16 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+    <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -932,477 +956,498 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3" ht="65.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>2020</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
+    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
+    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6" t="s">
+    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4" t="s">
+    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>2018</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5" t="s">
+    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
+    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="5" t="s">
+    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5" t="s">
+    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5" t="s">
+    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="4" t="s">
+    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="4" t="s">
+    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="6" t="s">
+    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>2016</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="4" t="s">
+    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C53" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A52"/>
+  <mergeCells count="8">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A54"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A39"/>
-    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoE\FeiYao-Edinburgh.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaofe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,15 @@
   <si>
     <t>金兰都著
 金勇译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒全传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施耐庵
+罗贯中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +638,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,7 +653,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -939,11 +951,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -956,498 +968,507 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="65.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>2021</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="65.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>2020</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
         <v>2019</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>2018</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5" t="s">
+    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5" t="s">
+    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>2017</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="4" t="s">
+    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="4" t="s">
+    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="6" t="s">
+    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
         <v>2016</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="6" t="s">
+    <row r="55" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/files/books.xlsx
+++ b/files/books.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaofe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3E42E-ED20-45FD-80FE-7B86949975A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="books" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">books!$A$1:$C$59</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,23 +504,44 @@
 罗贯中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>呼兰河传</t>
+  </si>
+  <si>
+    <t>萧红</t>
+  </si>
+  <si>
+    <t>人间失格</t>
+  </si>
+  <si>
+    <t>太宰治</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>陈浩基</t>
+  </si>
+  <si>
+    <t>百年孤独</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -604,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +666,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,12 +681,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,29 +960,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="29.25">
+      <c r="A1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="24.75">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -968,507 +993,546 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+    <row r="3" spans="1:3" ht="21.75">
+      <c r="A3" s="14">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12">
+        <v>1367</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5">
+      <c r="A7" s="15">
         <v>2021</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="65.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="s">
+    <row r="8" spans="1:3" ht="65.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+    <row r="9" spans="1:3" ht="21.75">
+      <c r="A9" s="15"/>
+      <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="10" spans="1:3" ht="21.75">
+      <c r="A10" s="14">
         <v>2020</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5" t="s">
+    <row r="11" spans="1:3" ht="21.75">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8" t="s">
+    <row r="12" spans="1:3" ht="21.75">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8" t="s">
+    <row r="13" spans="1:3" ht="21.75">
+      <c r="A13" s="14"/>
+      <c r="B13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8" t="s">
+    <row r="14" spans="1:3" ht="21.75">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7" t="s">
+    <row r="15" spans="1:3" ht="21.75">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="5" t="s">
+    <row r="16" spans="1:3" ht="21.75">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="5" t="s">
+    <row r="17" spans="1:3" ht="21.75">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:3" ht="21.75">
+      <c r="A18" s="14"/>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5" t="s">
+    <row r="19" spans="1:3" ht="21.75">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="1:3" ht="21.75">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="1:3" ht="21.75">
+      <c r="A21" s="14"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5" t="s">
+    <row r="22" spans="1:3" ht="21.75">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5" t="s">
+    <row r="23" spans="1:3" ht="21.75">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2" t="s">
+    <row r="24" spans="1:3" ht="21.75">
+      <c r="A24" s="14"/>
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5" t="s">
+    <row r="25" spans="1:3" ht="21.75">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2" t="s">
+    <row r="26" spans="1:3" ht="21.75">
+      <c r="A26" s="14"/>
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+    <row r="27" spans="1:3" ht="21.75">
+      <c r="A27" s="15">
         <v>2019</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6" t="s">
+    <row r="28" spans="1:3" ht="21.75">
+      <c r="A28" s="15"/>
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="1:3" ht="21.75">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="6" t="s">
+    <row r="30" spans="1:3" ht="21.75">
+      <c r="A30" s="15"/>
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4" t="s">
+    <row r="31" spans="1:3" ht="21.75">
+      <c r="A31" s="15"/>
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="1:3" ht="21.75">
+      <c r="A32" s="15"/>
+      <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+    <row r="33" spans="1:3" ht="21.75">
+      <c r="A33" s="14">
         <v>2018</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5" t="s">
+    <row r="34" spans="1:3" ht="21.75">
+      <c r="A34" s="14"/>
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="5" t="s">
+    <row r="35" spans="1:3" ht="21.75">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="2" t="s">
+    <row r="36" spans="1:3" ht="21.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="5" t="s">
+    <row r="37" spans="1:3" ht="21.75">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="5" t="s">
+    <row r="38" spans="1:3" ht="21.75">
+      <c r="A38" s="14"/>
+      <c r="B38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="2" t="s">
+    <row r="39" spans="1:3" ht="21.75">
+      <c r="A39" s="14"/>
+      <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="2" t="s">
+    <row r="40" spans="1:3" ht="21.75">
+      <c r="A40" s="14"/>
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="2" t="s">
+    <row r="41" spans="1:3" ht="21.75">
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="5" t="s">
+    <row r="42" spans="1:3" ht="21.75">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="2" t="s">
+    <row r="43" spans="1:3" ht="21.75">
+      <c r="A43" s="14"/>
+      <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="5" t="s">
+    <row r="44" spans="1:3" ht="21.75">
+      <c r="A44" s="14"/>
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="2" t="s">
+    <row r="45" spans="1:3" ht="21.75">
+      <c r="A45" s="14"/>
+      <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="2" t="s">
+    <row r="46" spans="1:3" ht="21.75">
+      <c r="A46" s="14"/>
+      <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+    <row r="47" spans="1:3" ht="21.75">
+      <c r="A47" s="15">
         <v>2017</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="6" t="s">
+    <row r="48" spans="1:3" ht="21.75">
+      <c r="A48" s="15"/>
+      <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="4" t="s">
+    <row r="49" spans="1:3" ht="21.75">
+      <c r="A49" s="15"/>
+      <c r="B49" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="4" t="s">
+    <row r="50" spans="1:3" ht="21.75">
+      <c r="A50" s="15"/>
+      <c r="B50" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="6" t="s">
+    <row r="51" spans="1:3" ht="21.75">
+      <c r="A51" s="15"/>
+      <c r="B51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+    <row r="52" spans="1:3" ht="21.75">
+      <c r="A52" s="14">
         <v>2016</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="2" t="s">
+    <row r="53" spans="1:3" ht="21.75">
+      <c r="A53" s="14"/>
+      <c r="B53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="2" t="s">
+    <row r="54" spans="1:3" ht="21.75">
+      <c r="A54" s="14"/>
+      <c r="B54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+    <row r="55" spans="1:3" ht="21.75">
+      <c r="A55" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="6" t="s">
+    <row r="56" spans="1:3" ht="21.75">
+      <c r="A56" s="15"/>
+      <c r="B56" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="4" t="s">
+    <row r="57" spans="1:3" ht="21.75">
+      <c r="A57" s="15"/>
+      <c r="B57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="43.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="4" t="s">
+    <row r="58" spans="1:3" ht="43.5">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="6" t="s">
+    <row r="59" spans="1:3" ht="21.75">
+      <c r="A59" s="15"/>
+      <c r="B59" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
+  <mergeCells count="9">
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A10:A26"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1481,19 +1545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>2018</v>
       </c>
@@ -1504,7 +1568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1515,7 +1579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2018</v>
       </c>
